--- a/Updated Tables List_16-05-2024 (1).xlsx
+++ b/Updated Tables List_16-05-2024 (1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Git\School_EducationPortal3.0_tableSchema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11715" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11715" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="MstCriticalillnessType" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,9 +27,11 @@
     <sheet name="MstScheme" sheetId="13" r:id="rId13"/>
     <sheet name="MstSchoolRegistration" sheetId="14" r:id="rId14"/>
     <sheet name="MstStudentRegistration" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" state="hidden" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet16" sheetId="16" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="310">
   <si>
     <t>GO</t>
   </si>
@@ -603,9 +610,6 @@
     <t>SpecialSchoolId</t>
   </si>
   <si>
-    <t>Table Name -MstStudentRegistration</t>
-  </si>
-  <si>
     <t>StudentId</t>
   </si>
   <si>
@@ -745,9 +749,6 @@
   </si>
   <si>
     <t>Defination : इस पेज से स्कूल का रजिस्ट्रेशन किया जाता है</t>
-  </si>
-  <si>
-    <t>Defination : इस पेज से Student  का रजिस्ट्रेशन किया जाता है</t>
   </si>
   <si>
     <t>Defination : सरकारी योजनायों का रजिस्ट्रेशन किया जाता है</t>
@@ -997,6 +998,42 @@
   </si>
   <si>
     <t>Nill</t>
+  </si>
+  <si>
+    <t>Table Name -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : </t>
+  </si>
+  <si>
+    <t>nvarchar(MAX)</t>
+  </si>
+  <si>
+    <t>IDENTITY (1,1)</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>RouteId</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>RouteWisePicupDroupId</t>
+  </si>
+  <si>
+    <t>RouteWisePicupDroupDate</t>
+  </si>
+  <si>
+    <t>PicupType</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Table Name - TrnRouteWisePicupDroup</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,77 +1266,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1324,9 +1298,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1340,6 +1311,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,7 +1657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1644,32 +1687,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1724,7 +1767,7 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1744,7 +1787,7 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1762,7 +1805,7 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1780,7 +1823,7 @@
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
@@ -1798,7 +1841,7 @@
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1816,7 +1859,7 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1834,7 +1877,7 @@
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1852,7 +1895,7 @@
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1870,9 +1913,9 @@
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1904,14 +1947,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
@@ -1947,7 +1990,7 @@
       <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1961,13 +2004,13 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1984,11 +2027,11 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>241</v>
+      <c r="F6" s="33" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,9 +2047,9 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2022,8 +2065,8 @@
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="54" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2040,8 +2083,8 @@
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2058,8 +2101,8 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2076,8 +2119,8 @@
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2094,8 +2137,8 @@
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="54" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2112,8 +2155,8 @@
       <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2146,18 +2189,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -2189,7 +2232,7 @@
       <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2203,13 +2246,13 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2226,11 +2269,11 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>275</v>
+      <c r="F6" s="33" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,9 +2289,9 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="54" t="s">
-        <v>276</v>
+      <c r="E7" s="41"/>
+      <c r="F7" s="33" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,9 +2307,9 @@
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="54" t="s">
-        <v>277</v>
+      <c r="E8" s="41"/>
+      <c r="F8" s="33" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,8 +2325,8 @@
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2300,8 +2343,8 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2318,8 +2361,8 @@
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2336,8 +2379,8 @@
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="54" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2354,8 +2397,8 @@
       <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2372,8 +2415,8 @@
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2406,18 +2449,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -2449,7 +2492,7 @@
       <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2463,13 +2506,13 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2486,11 +2529,11 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>242</v>
+      <c r="F6" s="33" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,9 +2549,9 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="54" t="s">
-        <v>243</v>
+      <c r="E7" s="41"/>
+      <c r="F7" s="33" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2539,576 +2582,576 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>3</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>4</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>5</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
-        <v>3</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="60" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>6</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>7</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>8</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>9</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <v>10</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>11</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <v>12</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>13</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>14</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>15</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <v>16</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
-        <v>4</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="60" t="s">
+      <c r="B21" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>5</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>6</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>7</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>8</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
-        <v>9</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
-        <v>10</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="59" t="s">
+      <c r="B22" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="F22" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>19</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <v>20</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <v>21</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>22</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <v>23</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
         <v>24</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="60" t="s">
+      <c r="B28" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="57"/>
+      <c r="F28" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="59">
-        <v>11</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="59" t="s">
+      <c r="B29" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="57"/>
+      <c r="F29" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
+        <v>26</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="60" t="s">
+      <c r="D30" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
-        <v>12</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="59">
-        <v>13</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
-        <v>14</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
-        <v>15</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
-        <v>16</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="59">
-        <v>17</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="59">
-        <v>18</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59">
-        <v>19</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="59">
-        <v>20</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="59" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>27</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="59">
-        <v>21</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
-        <v>22</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="59">
-        <v>23</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
+      <c r="D31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <v>28</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <v>29</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="59">
-        <v>25</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
-        <v>26</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="59">
-        <v>27</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
-        <v>28</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="59">
-        <v>29</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="60" t="s">
+      <c r="D33" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3144,655 +3187,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="22">
         <v>33</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="54" t="s">
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>34</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>35</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>36</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="22" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
-        <v>34</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>37</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>38</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>39</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>40</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>41</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>42</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>43</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>44</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>45</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>46</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>47</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>48</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>49</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>50</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>51</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>52</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>53</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>54</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>55</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>56</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>57</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>58</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>59</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>60</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>36</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="D30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>61</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>62</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>63</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>37</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>38</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>39</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>40</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>41</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>42</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>43</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>44</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>45</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>46</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>47</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>48</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>49</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <v>50</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>51</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>52</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>53</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>54</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>55</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>56</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <v>57</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <v>58</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>59</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
-        <v>60</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>61</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
-        <v>62</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>63</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="D33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>64</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>65</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>66</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
-        <v>64</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>65</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
-        <v>66</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="28" t="s">
-        <v>269</v>
+      <c r="D36" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="22" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="22">
         <v>67</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="28" t="s">
-        <v>266</v>
+      <c r="D37" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="54"/>
+      <c r="F37" s="22" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3825,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3842,32 +3885,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A1" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3894,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -3914,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
@@ -3922,11 +3965,11 @@
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="59" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3934,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>26</v>
@@ -3942,9 +3985,9 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3952,7 +3995,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>26</v>
@@ -3960,9 +4003,9 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>26</v>
@@ -3978,9 +4021,9 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,7 +4031,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>87</v>
@@ -3996,7 +4039,7 @@
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4006,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>26</v>
@@ -4014,9 +4057,9 @@
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
@@ -4032,9 +4075,9 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4042,17 +4085,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4060,17 +4103,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4078,7 +4121,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
@@ -4086,9 +4129,9 @@
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,17 +4139,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4114,7 +4157,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -4122,9 +4165,9 @@
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4132,17 +4175,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,17 +4193,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="D19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4168,17 +4211,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,17 +4229,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,7 +4247,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>113</v>
@@ -4212,9 +4255,9 @@
       <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4222,7 +4265,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>26</v>
@@ -4230,9 +4273,9 @@
       <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4240,7 +4283,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>26</v>
@@ -4248,9 +4291,9 @@
       <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4258,17 +4301,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="26"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,14 +4322,14 @@
         <v>172</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4294,7 +4337,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>26</v>
@@ -4302,9 +4345,9 @@
       <c r="D27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,17 +4355,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4330,17 +4373,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4348,7 +4391,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>35</v>
@@ -4356,9 +4399,9 @@
       <c r="D30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4366,7 +4409,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>35</v>
@@ -4374,9 +4417,9 @@
       <c r="D31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="26"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,7 +4427,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>26</v>
@@ -4392,9 +4435,9 @@
       <c r="D32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4402,7 +4445,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>110</v>
@@ -4410,9 +4453,9 @@
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="26"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,7 +4463,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>87</v>
@@ -4428,9 +4471,9 @@
       <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="26"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4438,7 +4481,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>11</v>
@@ -4446,9 +4489,9 @@
       <c r="D35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="26"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,7 +4499,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>35</v>
@@ -4464,9 +4507,9 @@
       <c r="D36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="26"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4474,7 +4517,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>35</v>
@@ -4482,9 +4525,9 @@
       <c r="D37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="26"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4492,7 +4535,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>26</v>
@@ -4500,9 +4543,9 @@
       <c r="D38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,7 +4553,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>110</v>
@@ -4518,9 +4561,9 @@
       <c r="D39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="26"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4528,7 +4571,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>87</v>
@@ -4536,9 +4579,9 @@
       <c r="D40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="26"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,7 +4589,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -4554,9 +4597,9 @@
       <c r="D41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="26"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,7 +4607,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>21</v>
@@ -4572,7 +4615,7 @@
       <c r="D42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="60"/>
       <c r="F42" s="7" t="s">
         <v>22</v>
       </c>
@@ -4590,7 +4633,7 @@
       <c r="D43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="60"/>
       <c r="F43" s="7" t="s">
         <v>22</v>
       </c>
@@ -4608,7 +4651,7 @@
       <c r="D44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="60"/>
       <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4626,7 +4669,7 @@
       <c r="D45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="26"/>
+      <c r="E45" s="60"/>
       <c r="F45" s="7" t="s">
         <v>25</v>
       </c>
@@ -4644,7 +4687,7 @@
       <c r="D46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="60"/>
       <c r="F46" s="7" t="s">
         <v>27</v>
       </c>
@@ -4662,7 +4705,7 @@
       <c r="D47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="26"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="7" t="s">
         <v>28</v>
       </c>
@@ -4680,7 +4723,7 @@
       <c r="D48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="26"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="7" t="s">
         <v>29</v>
       </c>
@@ -4698,9 +4741,9 @@
       <c r="D49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="27"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -4719,6 +4762,523 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="62">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="62">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="J6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="62">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="62">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="62">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="62">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="62">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="62">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="62">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="62">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="62">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="62">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="62">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="62">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="62">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="62">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="62">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="62">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="62">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="62">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="62">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="62">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="62">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4749,32 +5309,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4829,7 +5389,7 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -4849,7 +5409,7 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
@@ -4940,32 +5500,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="C3" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -5020,11 +5580,11 @@
       <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
@@ -5040,9 +5600,9 @@
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -5058,9 +5618,9 @@
       <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
@@ -5076,7 +5636,7 @@
       <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
@@ -5094,7 +5654,7 @@
       <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
@@ -5112,7 +5672,7 @@
       <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="7" t="s">
         <v>25</v>
       </c>
@@ -5130,7 +5690,7 @@
       <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="7" t="s">
         <v>27</v>
       </c>
@@ -5148,7 +5708,7 @@
       <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="7" t="s">
         <v>28</v>
       </c>
@@ -5166,7 +5726,7 @@
       <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="7" t="s">
         <v>29</v>
       </c>
@@ -5201,32 +5761,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5281,7 +5841,7 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -5302,7 +5862,7 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
@@ -5321,7 +5881,7 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="19" t="s">
         <v>22</v>
       </c>
@@ -5414,289 +5974,289 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="52" t="s">
-        <v>266</v>
+      <c r="C8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="31" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+      <c r="A10" s="29">
         <v>5</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="53" t="s">
-        <v>295</v>
+      <c r="D10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="32" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="29">
         <v>6</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="52" t="s">
+      <c r="D11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="29">
         <v>7</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="52" t="s">
+      <c r="C12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="29">
         <v>8</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="52" t="s">
+      <c r="D13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="29">
         <v>9</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
+      <c r="A15" s="29">
         <v>10</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="52" t="s">
+      <c r="C15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
-        <v>11</v>
-      </c>
-      <c r="B16" s="51" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>11</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="52" t="s">
+      <c r="D16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="29">
         <v>12</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="52" t="s">
+      <c r="D17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
-        <v>15</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="29">
+        <v>15</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="52" t="s">
-        <v>266</v>
+      <c r="C18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="31" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -5739,32 +6299,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5819,7 +6379,7 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -5839,7 +6399,7 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
@@ -5857,9 +6417,9 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5875,7 +6435,7 @@
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
@@ -5893,7 +6453,7 @@
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
@@ -5911,7 +6471,7 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="7" t="s">
         <v>25</v>
       </c>
@@ -5929,7 +6489,7 @@
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
@@ -5947,7 +6507,7 @@
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
@@ -5965,7 +6525,7 @@
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="7" t="s">
         <v>29</v>
       </c>
@@ -5983,9 +6543,9 @@
       <c r="D16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6020,55 +6580,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="22">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -6088,7 +6648,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="22">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -6100,15 +6660,15 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -6120,13 +6680,13 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -6138,13 +6698,13 @@
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="22">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -6156,13 +6716,13 @@
       <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="22">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -6174,13 +6734,13 @@
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="22">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -6192,13 +6752,13 @@
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="22">
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -6210,13 +6770,13 @@
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="22">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -6228,13 +6788,13 @@
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="22">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6246,13 +6806,13 @@
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="22">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -6264,13 +6824,13 @@
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="22">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -6282,13 +6842,13 @@
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="22">
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6300,13 +6860,13 @@
       <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="22">
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6318,13 +6878,13 @@
       <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="22">
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6336,13 +6896,13 @@
       <c r="D20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="22">
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6354,13 +6914,13 @@
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="22">
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6372,13 +6932,13 @@
       <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="22">
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -6390,13 +6950,13 @@
       <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="22">
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6408,13 +6968,13 @@
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="22">
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -6426,13 +6986,13 @@
       <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="22">
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -6444,13 +7004,13 @@
       <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="22">
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -6462,13 +7022,13 @@
       <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="22">
         <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -6480,13 +7040,13 @@
       <c r="D28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="22">
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -6498,13 +7058,13 @@
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="22">
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6516,13 +7076,13 @@
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="22">
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6534,13 +7094,13 @@
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="22">
         <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -6552,13 +7112,13 @@
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="22">
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -6570,13 +7130,13 @@
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="22">
         <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -6588,13 +7148,13 @@
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+      <c r="A35" s="22">
         <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -6606,13 +7166,13 @@
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="30"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="22">
         <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -6624,13 +7184,13 @@
       <c r="D36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="22">
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -6642,13 +7202,13 @@
       <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="22">
         <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -6660,13 +7220,13 @@
       <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39" s="22">
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -6678,13 +7238,13 @@
       <c r="D39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="53"/>
       <c r="F39" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+      <c r="A40" s="22">
         <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6696,13 +7256,13 @@
       <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="A41" s="22">
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -6714,13 +7274,13 @@
       <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="53"/>
       <c r="F41" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+      <c r="A42" s="22">
         <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6732,13 +7292,13 @@
       <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="30"/>
+      <c r="E42" s="53"/>
       <c r="F42" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="A43" s="22">
         <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -6750,13 +7310,13 @@
       <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="53"/>
       <c r="F43" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44" s="22">
         <v>39</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -6768,13 +7328,13 @@
       <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="30"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="A45" s="22">
         <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -6786,13 +7346,13 @@
       <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="30"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46" s="22">
         <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6804,13 +7364,13 @@
       <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="30"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="A47" s="22">
         <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6822,13 +7382,13 @@
       <c r="D47" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="30"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="22">
         <v>43</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6840,13 +7400,13 @@
       <c r="D48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="30"/>
+      <c r="E48" s="53"/>
       <c r="F48" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
+      <c r="A49" s="22">
         <v>44</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -6858,13 +7418,13 @@
       <c r="D49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
+      <c r="A50" s="22">
         <v>45</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -6876,13 +7436,13 @@
       <c r="D50" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="53"/>
       <c r="F50" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+      <c r="A51" s="22">
         <v>46</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6894,13 +7454,13 @@
       <c r="D51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="30"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+      <c r="A52" s="22">
         <v>47</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -6912,13 +7472,13 @@
       <c r="D52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="30"/>
+      <c r="E52" s="53"/>
       <c r="F52" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+      <c r="A53" s="22">
         <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -6930,13 +7490,13 @@
       <c r="D53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="30"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54" s="22">
         <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -6948,13 +7508,13 @@
       <c r="D54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="53"/>
       <c r="F54" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+      <c r="A55" s="22">
         <v>50</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -6966,13 +7526,13 @@
       <c r="D55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="53"/>
       <c r="F55" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
+      <c r="A56" s="22">
         <v>51</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6984,7 +7544,7 @@
       <c r="D56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="31"/>
+      <c r="E56" s="54"/>
       <c r="F56" s="7" t="s">
         <v>29</v>
       </c>
@@ -7017,32 +7577,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7097,11 +7657,11 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -7117,9 +7677,9 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -7135,9 +7695,9 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -7429,14 +7989,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
@@ -7472,7 +8032,7 @@
       <c r="E5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7486,13 +8046,13 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7509,11 +8069,11 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>279</v>
+      <c r="F7" s="33" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7529,9 +8089,9 @@
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="54" t="s">
-        <v>280</v>
+      <c r="E8" s="41"/>
+      <c r="F8" s="33" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7547,9 +8107,9 @@
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="54" t="s">
-        <v>281</v>
+      <c r="E9" s="41"/>
+      <c r="F9" s="33" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7565,9 +8125,9 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7583,9 +8143,9 @@
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="54" t="s">
-        <v>283</v>
+      <c r="E11" s="41"/>
+      <c r="F11" s="33" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7601,8 +8161,8 @@
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="54" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7619,8 +8179,8 @@
       <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7637,8 +8197,8 @@
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7655,8 +8215,8 @@
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="54" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7673,8 +8233,8 @@
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="54" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7691,8 +8251,8 @@
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="54" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="33" t="s">
         <v>29</v>
       </c>
     </row>
